--- a/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$45</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="323">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T12:56:11-05:00</t>
+    <t>2022-04-19T13:14:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,7 +595,7 @@
     <t>endpoint-usecase</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/endpoint-usecase}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/endpoint-usecase}
 </t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>ig-supported</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/igsSupported}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/igsSupported}
 </t>
   </si>
   <si>
@@ -625,7 +625,7 @@
     <t>endpoint-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/endpointType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/endpointType}
 </t>
   </si>
   <si>
@@ -638,7 +638,7 @@
     <t>secure-exchange-artifacts</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/secureExchangeArtifacts}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/secureExchangeArtifacts}
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>trust-framework</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/trustFramework}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/trustFramework}
 </t>
   </si>
   <si>
@@ -658,7 +658,7 @@
     <t>dynamic-registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/dynamicRegistration}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/dynamicRegistration}
 </t>
   </si>
   <si>
@@ -668,7 +668,7 @@
     <t>associated-servers</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/associatedServers}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/associatedServers}
 </t>
   </si>
   <si>
@@ -678,7 +678,7 @@
     <t>secured-endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/secureEndpoint}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/secureEndpoint}
 </t>
   </si>
   <si>
@@ -720,6 +720,156 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>Endpoint.identifier.id</t>
+  </si>
+  <si>
+    <t>Endpoint.identifier.extension</t>
+  </si>
+  <si>
+    <t>Endpoint.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Endpoint.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Endpoint.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Endpoint.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Endpoint.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Endpoint.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>Endpoint.status</t>
   </si>
   <si>
@@ -732,9 +882,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the endpoint as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The status of the endpoint.</t>
   </si>
   <si>
@@ -756,7 +903,7 @@
     <t>For additional connectivity details for the protocol, extensions will be used at this point, as in the XDS example.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/EndpointConnectionTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/EndpointConnectionTypeVS</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -777,7 +924,7 @@
     <t>Endpoint.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -803,123 +950,6 @@
     <t>Contact details for a human to contact about the subscription. The primary use of this for system administrator troubleshooting.</t>
   </si>
   <si>
-    <t>Endpoint.contact.id</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.extension</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
     <t>Endpoint.period</t>
   </si>
   <si>
@@ -935,10 +965,6 @@
     <t>Endpoint.payloadType</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>The type of content that may be used at this endpoint (e.g. XDS Discharge summaries)</t>
   </si>
   <si>
@@ -948,7 +974,7 @@
     <t>The payloadFormat describes the serialization format of the data, where the payloadType indicates the specific document/schema that is being transferred; e.g. DischargeSummary or CarePlan.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/EndpointPayloadTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/EndpointPayloadTypeVS</t>
   </si>
   <si>
     <t>Endpoint.payloadMimeType</t>
@@ -1317,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK44"/>
+  <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1350,7 +1376,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="76.60546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.30078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -1361,7 +1387,7 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.27734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="99.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3057,7 +3083,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>76</v>
@@ -3148,7 +3174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>181</v>
       </c>
@@ -3166,7 +3192,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3370,10 +3396,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>83</v>
@@ -3463,7 +3489,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>181</v>
       </c>
@@ -3481,7 +3507,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3568,7 +3594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>181</v>
       </c>
@@ -3586,7 +3612,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -3673,7 +3699,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>181</v>
       </c>
@@ -3691,7 +3717,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -3778,7 +3804,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>181</v>
       </c>
@@ -3796,7 +3822,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3883,7 +3909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>181</v>
       </c>
@@ -3901,7 +3927,7 @@
         <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4095,7 +4121,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>219</v>
       </c>
@@ -4111,7 +4137,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4198,7 +4224,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>224</v>
       </c>
@@ -4208,39 +4234,37 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>74</v>
@@ -4258,13 +4282,13 @@
         <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>74</v>
@@ -4282,10 +4306,10 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -4294,50 +4318,50 @@
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4363,52 +4387,54 @@
         <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4422,25 +4448,29 @@
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4464,13 +4494,13 @@
         <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>74</v>
@@ -4488,7 +4518,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4503,15 +4533,15 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4525,7 +4555,7 @@
         <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -4534,18 +4564,20 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
@@ -4569,13 +4601,13 @@
         <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -4593,7 +4625,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4608,15 +4640,15 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4627,28 +4659,32 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>74</v>
       </c>
@@ -4660,7 +4696,7 @@
         <v>74</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>74</v>
@@ -4696,13 +4732,13 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -4711,7 +4747,7 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -4719,7 +4755,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4739,18 +4775,20 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>96</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -4763,7 +4801,7 @@
         <v>74</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>74</v>
@@ -4799,7 +4837,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4811,10 +4849,10 @@
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -4822,18 +4860,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>74</v>
@@ -4842,20 +4880,18 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -4892,34 +4928,34 @@
         <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>108</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -4927,7 +4963,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4950,15 +4986,17 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -4983,13 +5021,13 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -5007,7 +5045,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5016,13 +5054,13 @@
         <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5030,7 +5068,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5038,7 +5076,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>82</v>
@@ -5047,32 +5085,30 @@
         <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>74</v>
@@ -5090,13 +5126,13 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>277</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>74</v>
@@ -5114,10 +5150,10 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -5129,15 +5165,15 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5145,35 +5181,33 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5197,13 +5231,11 @@
         <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>74</v>
@@ -5221,10 +5253,10 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -5236,15 +5268,15 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>74</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5267,17 +5299,15 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5326,7 +5356,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5344,12 +5374,12 @@
         <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5363,7 +5393,7 @@
         <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5372,15 +5402,17 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -5429,7 +5461,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5444,7 +5476,7 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -5452,7 +5484,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5463,7 +5495,7 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>74</v>
@@ -5472,16 +5504,16 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5532,13 +5564,13 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
@@ -5550,12 +5582,12 @@
         <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5563,13 +5595,13 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5578,17 +5610,15 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -5613,11 +5643,13 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -5635,13 +5667,13 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -5653,12 +5685,12 @@
         <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5666,13 +5698,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -5681,16 +5713,16 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5716,34 +5748,32 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="X42" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X42" s="2"/>
+      <c r="Y42" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="AF42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -5763,7 +5793,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5771,10 +5801,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>83</v>
@@ -5786,16 +5816,16 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>306</v>
+        <v>157</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5821,13 +5851,13 @@
         <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>74</v>
@@ -5845,13 +5875,13 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
@@ -5868,7 +5898,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5876,10 +5906,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
@@ -5888,19 +5918,19 @@
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>315</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -5950,13 +5980,13 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
@@ -5965,14 +5995,119 @@
         <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
       </c>
     </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK44">
+  <autoFilter ref="A1:AK45">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5982,7 +6117,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T21:32:28-05:00</t>
+    <t>2022-04-24T12:38:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T12:38:40-05:00</t>
+    <t>2022-04-25T03:17:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T03:17:22-05:00</t>
+    <t>2022-04-25T04:33:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:33:18-05:00</t>
+    <t>2022-04-25T04:38:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:38:22-05:00</t>
+    <t>2022-05-01T20:03:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:03:30-05:00</t>
+    <t>2022-05-01T20:29:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:29:13-05:00</t>
+    <t>2022-05-04T12:20:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T12:20:47-05:00</t>
+    <t>2022-06-03T13:24:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T13:24:40-05:00</t>
+    <t>2022-06-15T12:17:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T12:17:27-04:00</t>
+    <t>2022-07-10T21:26:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T21:26:18-05:00</t>
+    <t>2022-07-15T12:22:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1352,43 +1352,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.91015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.73046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.8984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.1796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.85546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.30078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T12:22:10-04:00</t>
+    <t>2022-07-15T15:24:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
